--- a/SIMD编程实验/simd实验数据.xlsx
+++ b/SIMD编程实验/simd实验数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\华盖将倾\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parallel programming_projects\parallel_programs\SIMD编程实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0BC54-F3B8-4AF0-84C4-8BBDEB93BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E847B2B-6D28-4A6E-B65E-8E2784172EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2214" yWindow="0" windowWidth="13190" windowHeight="12343" xr2:uid="{36E0D82A-A912-4E9F-82CD-D00CFDCA6282}"/>
   </bookViews>
@@ -317,7 +317,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>性能测试结果</a:t>
+              <a:t>对齐、不对齐的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>neon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>编程实现</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -358,10 +366,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16755314960629922"/>
+          <c:x val="0.16755324450114112"/>
           <c:y val="0.15261592300962379"/>
-          <c:w val="0.80189129483814525"/>
-          <c:h val="0.5233169291338583"/>
+          <c:w val="0.80189133836294957"/>
+          <c:h val="0.51375054564162748"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1082,6 +1090,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37972622808678586"/>
+              <c:y val="0.72471301792642251"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1284,6 +1300,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1072977605915945"/>
+          <c:y val="0.79850636371614059"/>
+          <c:w val="0.74426892833295133"/>
+          <c:h val="0.18714406181841875"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5149,16 +5175,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>283106</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723452</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>97795</xdr:rowOff>
+      <xdr:rowOff>120771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>599201</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80945</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>128182</xdr:rowOff>
+      <xdr:rowOff>151158</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5221,16 +5247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>176549</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>84707</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38236</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>321082</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>17746</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>321083</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>17747</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5557,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49050C30-B0DA-44F2-B85B-41E930C81103}">
   <dimension ref="B2:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:I49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
